--- a/Foundation/egovframework.rte.fdl.excel/testdata/testUseTemplate1.xlsx
+++ b/Foundation/egovframework.rte.fdl.excel/testdata/testUseTemplate1.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="780" windowWidth="17775" windowHeight="7605"/>
+    <workbookView windowHeight="7605" windowWidth="17775" xWindow="840" yWindow="780"/>
   </bookViews>
   <sheets>
-    <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Timesheet" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -70,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -232,48 +232,48 @@
     </border>
   </borders>
   <cellStyleXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="6" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="2" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="2" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -284,10 +284,10 @@
     <cellStyle name="㼿㼿?" xfId="4"/>
     <cellStyle name="㼿㼿㼿" xfId="5"/>
     <cellStyle name="㼿㼿㼿㼿㼿" xfId="6"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="표준" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -301,10 +301,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -462,7 +462,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -471,13 +471,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -487,7 +487,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -496,7 +496,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -505,7 +505,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -515,12 +515,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -551,7 +551,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -570,7 +570,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -582,11 +582,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
@@ -598,7 +598,7 @@
     <col min="3" max="9" customWidth="true" width="6.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="45" r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -612,7 +612,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="39.950000000000003" r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -673,7 +673,7 @@
         <v>6.0</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J12" si="0">SUM(C3:I3)</f>
+        <f ref="J3:J12" si="0" t="shared">SUM(C3:I3)</f>
         <v>0</v>
       </c>
     </row>
@@ -702,7 +702,7 @@
         <v>4.0</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -717,7 +717,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="3">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -732,7 +732,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="3">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -747,7 +747,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="3">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -762,7 +762,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="3">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -777,7 +777,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="3">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -792,7 +792,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -807,7 +807,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -822,45 +822,45 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+        <f si="0" t="shared"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="35.1" r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ref="C13:J13" si="1">SUM(C3:C12)</f>
+        <f ref="C13:J13" si="1" t="shared">SUM(C3:C12)</f>
         <v>0</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -871,7 +871,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>